--- a/app/users.xlsx
+++ b/app/users.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,114 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pooranashree</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rajaganesh@gmail.com</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>pbkdf2:sha256:600000$Cvew0ue8g7FfqDrI$ee36d81d57ed48014a99485b3c6434a614dbbf41121f057f62e1b6bbe1393d10</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-09-17T21:02:49.323625</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>_shree_2815_.__</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>srishakthi2011@gmail.com</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>pbkdf2:sha256:600000$XXtrorxbIh4kKUfk$0d14d22db47b436d6ed5f803a27914741f11b39582fbdcc221b1ed551f58aef8</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-09-17T21:34:45.121162</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>hello@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>pbkdf2:sha256:600000$oNsGOCFrwwYkdsaD$a159c63bcc2cb6dc5dc939e1d611b59e0cf274ed6cc8e6749866497f6994e3a8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-09-17T21:35:57.276583</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>admin@gmail.com</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>pbkdf2:sha256:600000$rpCZDfX1tcLJBRev$5ef4f1fa1e0083af1dd75bb17c33cb1fce2ef2e276f400e880da8fa511cfea0b</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-09-17T23:21:04.493285</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/app/users.xlsx
+++ b/app/users.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,6 +583,33 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>kishoreee</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>kishoretheshuttler@gmail.com</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>pbkdf2:sha256:600000$Xx93e9oFGUoPzy5x$48668ac9642db822113f544f52dfd5c9e57df5d1ee1dcab0285596929de5e0e2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-09-17T23:28:28.807832</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
